--- a/library/Library_J.PLAGGENBERG_08.26.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_08.26.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GACCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -288,7 +288,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L19"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,7 +382,8 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -420,7 +421,8 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -458,7 +460,8 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -496,7 +499,8 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -534,7 +538,8 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -572,7 +577,8 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -610,7 +616,8 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -648,7 +655,8 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -686,7 +694,8 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -724,7 +733,8 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -762,7 +772,8 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -800,7 +811,8 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -838,7 +850,8 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -876,7 +889,8 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +928,8 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -952,7 +967,8 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -990,7 +1006,8 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1028,7 +1045,8 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_08.26.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_08.26.19.xlsx
@@ -288,7 +288,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K19"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,8 +382,7 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -421,8 +420,7 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -460,8 +458,7 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -499,8 +496,7 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -538,8 +534,7 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -577,8 +572,7 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -616,8 +610,7 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -655,8 +648,7 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -694,8 +686,7 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -733,8 +724,7 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L11" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -772,8 +762,7 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L12" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -811,8 +800,7 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L13" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -850,8 +838,7 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L14" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -889,8 +876,7 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L15" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -928,8 +914,7 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L16" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,8 +952,7 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L17" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1006,8 +990,7 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L18" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1045,8 +1028,7 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L19" s="8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_08.26.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_08.26.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">GACCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -288,7 +288,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L19"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,7 +382,8 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -420,7 +421,8 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -458,7 +460,8 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -496,7 +499,8 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -534,7 +538,8 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -572,7 +577,8 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -610,7 +616,8 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -648,7 +655,8 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -686,7 +694,8 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -724,7 +733,8 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -762,7 +772,8 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -800,7 +811,8 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -838,7 +850,8 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -876,7 +889,8 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +928,8 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -952,7 +967,8 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -990,7 +1006,8 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1028,7 +1045,8 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
